--- a/biology/Zoologie/Hymenosomatidae/Hymenosomatidae.xlsx
+++ b/biology/Zoologie/Hymenosomatidae/Hymenosomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hymenosomatidae sont une famille de crabes du groupe des Majoidea. Elle comprend plus de 120 espèces dans 19 genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (24 octobre 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (24 octobre 2015) :
 genre Amarinus Lucas, 1980
 genre Apechocinus Ng &amp; Chuang, 1996
 genre Cancrocaeca Ng, 1991
@@ -566,7 +580,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Macleay, 1838 : On the brachyurous decapod Crustacea brought from the Cape by Dr. Smith. Illustrations of the Annulosa of South Africa; being a portion of the objects of natural history chiefly collected during an expedition into the interior of South Africa, under the direction of Dr. Andrew Smith, in the years 1834, 1835. and 1836; fitted out by “The Cape of Good Hope Association for Exploring Central Africa”. p. 53–71.</t>
         </is>
@@ -596,7 +612,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17, p. 1–286.
 De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
